--- a/docs/PT1/PT1_08.11.2024_output.xlsx
+++ b/docs/PT1/PT1_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,189 +505,223 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731090401.7986052</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731090407.381213</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731090401.7986052.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731090407.381213.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7130.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7086</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-44.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731090422.523121</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731090424.915163</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731090422.523121.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731090424.915163.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7086</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7074</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-12</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731090432.3541028</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731090433.706375</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090432.3541028.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090433.706375.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>473.65</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>473.65</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,236 +729,281 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731090437.0654604</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731090437.2239397</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090437.0654604.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090437.2239397.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>473.55</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>474.2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731090439.8094027</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731090440.8790498</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090439.8094027.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731090440.8790498.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>473.65</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>473.9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731090451.880904</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731090451.880904.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t>./test_images/ROSN1731090451.880904.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>474.65</v>
       </c>
-      <c r="J8" t="n">
-        <v>474.65</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1499999999999773</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731090460.3549285</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731090461.5797362</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090460.3549285.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090461.5797362.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>929</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>929.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731090462.770402</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731090464.0114625</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090462.770402.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090464.0114625.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>927.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>927.6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -917,1372 +1011,1624 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731090478.7714217</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731090480.3690038</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090478.7714217.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090480.3690038.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>932</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>931.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.6000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731090481.1955066</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731090481.44318</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090481.1955066.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731090481.44318.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>930</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>931.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731090481.9199617</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731090482.9327214</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731090481.9199617.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731090482.9327214.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>129.44</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.7</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731090507.8592834</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731090508.6197476</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731090507.8592834.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731090508.6197476.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>129.9</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>130.06</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731090533.3944507</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731090534.5358748</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731090533.3944507.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731090534.5358748.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>37.97</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>38.01</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731090535.8645658</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731090536.049641</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731090535.8645658.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731090536.049641.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>37.91</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>37.985</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731090549.7510812</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731090550.8153937</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090549.7510812.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090550.8153937.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1182.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1184</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731090562.121192</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731090562.561849</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090562.121192.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090562.561849.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1190</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731090563.441458</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731090563.7942028</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090563.441458.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731090563.7942028.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1189.2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.600000000000136</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731090565.4939547</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731090565.6758769</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090565.4939547.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090565.6758769.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>78.61</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>78.72</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731090570.3495905</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731090572.413041</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090570.3495905.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090572.413041.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>78.59</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>78.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.2900000000000063</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731090589.5649188</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731090590.3316739</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090589.5649188.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090590.3316739.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>78.53</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>78.67</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731090590.892921</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731090591.4465024</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090590.892921.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731090591.4465024.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>78.54000000000001</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>78.64</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731090592.4058862</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731090592.9764118</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090592.4058862.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090592.9764118.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>103.28</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>103.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731090594.3939862</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731090594.7324774</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090594.3939862.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090594.7324774.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>103.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>103.41</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2099999999999937</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731090595.9316814</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731090597.5216634</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090595.9316814.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090597.5216634.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>103.09</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>103.16</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731090598.1869133</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731090599.9730036</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090598.1869133.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090599.9730036.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>102.77</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>102.19</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.5799999999999983</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731090619.1118448</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731090619.4869123</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090619.1118448.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731090619.4869123.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>102.69</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>103.1</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731090625.5718584</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731090627.6067483</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731090625.5718584.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731090627.6067483.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>2747.85</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>2738.85</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-9</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731090644.4478633</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731090644.8716457</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731090644.4478633.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731090644.8716457.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>2747.45</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>2751.85</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>4.400000000000091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731090645.3685331</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731090646.2576976</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731090645.3685331.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731090646.2576976.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>2746.15</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>2747.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.449999999999818</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731090646.5317123</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731090647.2645333</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MXI1731090646.5317123.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MXI1731090647.2645333.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>2740.65</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>2745.15</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731090661.8686023</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731090662.4669797</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/APTK1731090661.8686023.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/APTK1731090662.4669797.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>10.824</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>10.856</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.03200000000000003</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731090666.4013348</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731090668.9438398</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/APTK1731090666.4013348.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/APTK1731090668.9438398.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>10.84</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>10.848</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.008000000000000895</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731090679.6860938</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731090680.4498222</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731090679.6860938.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731090680.4498222.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>484.3</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>483.3</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731090684.7990065</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731090686.0519133</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731090684.7990065.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731090686.0519133.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>482.3</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>482.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731090690.96551</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731090692.6789951</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731090690.96551.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731090692.6789951.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>483.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>486.3</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731090726.866938</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731090728.9871366</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731090726.866938.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731090728.9871366.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>578.5</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>576.1</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-2.399999999999977</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,6 +2666,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2333,6 +2694,15 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.06599999999999681</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2346,6 +2716,15 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.3374999999999773</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2359,6 +2738,15 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2367,11 +2755,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8999999999999773</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2385,6 +2782,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.01499999999999702</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2398,6 +2804,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>1.400000000000091</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2411,6 +2826,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.4666666666666591</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2424,6 +2848,15 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.02000000000000046</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2437,6 +2870,15 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>-28.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2450,6 +2892,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.05750000000000099</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2463,6 +2914,15 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.2099999999999937</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2476,6 +2936,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>-2.399999999999977</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2489,6 +2958,11 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
